--- a/python爬虫/京东销量最高的鞋子的颜色和大小.xlsx
+++ b/python爬虫/京东销量最高的鞋子的颜色和大小.xlsx
@@ -443,60 +443,60 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>烟灰/361度白</t>
+          <t>曜石黑/361度白</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>曜石黑/361度白</t>
+          <t>曜石黑/宇宙灰</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>曜石黑/宇宙灰</t>
+          <t>曜石黑/361度白</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>曜石黑/361度白</t>
+          <t>曜石黑/宇宙灰</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>曜石黑/宇宙灰</t>
+          <t>曜石黑/361度白</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -544,19 +544,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>曜石黑/361度白</t>
+          <t>曜石黑/宇宙灰</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
     </row>
